--- a/test-files/demo-files/21-genes_50-edges_Dahlquist-data_estimation_output.xlsx
+++ b/test-files/demo-files/21-genes_50-edges_Dahlquist-data_estimation_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Documents/GRNsight/test-files/demo-files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="19980" windowHeight="14380" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19980" windowHeight="14380" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +22,13 @@
     <sheet name="measurement_times" sheetId="8" r:id="rId8"/>
     <sheet name="network" sheetId="9" r:id="rId9"/>
     <sheet name="network_weights" sheetId="10" r:id="rId10"/>
-    <sheet name="network_optimized_b" sheetId="11" r:id="rId11"/>
-    <sheet name="network_optimized_weights" sheetId="12" r:id="rId12"/>
-    <sheet name="concentration_sigmas" sheetId="13" r:id="rId13"/>
+    <sheet name="network_optimized_weights" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="48">
   <si>
     <t>SystematicName</t>
   </si>
@@ -176,9 +182,6 @@
   <si>
     <t>rows genes affected/cols genes controlling</t>
   </si>
-  <si>
-    <t>b</t>
-  </si>
 </sst>
 </file>
 
@@ -220,6 +223,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -549,14 +557,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -568,9 +571,9 @@
       <selection sqref="A1:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -638,7 +641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -706,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -774,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -842,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -910,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -978,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1794,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2068,2183 +2071,1517 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>0.94105836080930605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>-2.5232586557231759E-3</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>-0.12614940052345783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>1.2709469918324567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-0.32925547026345103</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>-7.5231704542253516E-2</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>2.7873353519020458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-4.9697193721016712E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>5.287402972703378E-3</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2.6302109377965232E-3</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.14472957262572261</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>0.69921119234267315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-6.6639974379341008E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.12332946320189271</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
         <v>13</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>3.6868739753550659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-9.1772607881202645E-2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.42115638589830329</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
         <v>15</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>1.3818989850522732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>-1.5296753449023513E-3</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
         <v>17</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>0.31449924436605914</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>4.9959969054463767E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
         <v>19</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>1.1705717560675761</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-4.4366308051228594E-3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.562099036525747E-2</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>0.49053711734064209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.37950479684377619</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>5.8195051784647054E-5</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
         <v>23</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>-0.45983334369307516</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>-9.7698253805141397E-2</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
         <v>25</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>1.5673874122874596</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>-1.8618671272752751</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>-2.2949949128916932E-4</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
         <v>27</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>1.7437631948917169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-0.12987267861214094</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.6800371225838787E-2</v>
+      </c>
+      <c r="Q14">
+        <v>-9.3115125406460247E-2</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
         <v>29</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>0.74590990943301705</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.50540785378514563</v>
+      </c>
+      <c r="E15">
+        <v>-4.5902694315623799E-2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>-3.3591211962019904E-2</v>
+      </c>
+      <c r="P15">
+        <v>-8.6976342475606431E-3</v>
+      </c>
+      <c r="Q15">
+        <v>6.9028799724302724E-3</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>-1.6335741034220978E-3</v>
+      </c>
+      <c r="T15">
+        <v>4.8315806593205411E-2</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
         <v>31</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>1.9997194134800969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.38172972497927926</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
         <v>33</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
         <v>35</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>1.6566968666165478</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>-1.5924026635653246E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.4141600217548902</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>-0.20200506001499638</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>-1.2436555873931391E-3</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
         <v>37</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>1.4390069699093244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>-0.26824665257451935</v>
+      </c>
+      <c r="L19">
+        <v>0.10779023621981508</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>-1.9394977771853461E-3</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.15689663146550228</v>
+      </c>
+      <c r="T19">
+        <v>-0.10268126613380985</v>
+      </c>
+      <c r="U19">
+        <v>0.19931973286411933</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
         <v>39</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
         <v>41</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>2.6112069509788345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>4.3042033874769188E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.54167750471316523</v>
+      </c>
+      <c r="F21">
+        <v>-0.15283981940782512</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>9.5369302076309156E-2</v>
+      </c>
+      <c r="P21">
+        <v>0.19791403460035711</v>
+      </c>
+      <c r="Q21">
+        <v>4.3891397946807719E-3</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>6.7777079046619407E-2</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
         <v>43</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>4.6261207491672716</v>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>1.0008475760882247</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:V22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>-2.5232586557231759E-3</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>-0.12614940052345783</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>-0.32925547026345103</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>-7.5231704542253516E-2</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>-4.9697193721016712E-2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>5.287402972703378E-3</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>2.6302109377965232E-3</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.14472957262572261</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-6.6639974379341008E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.12332946320189271</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>-9.1772607881202645E-2</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0.42115638589830329</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>-1.5296753449023513E-3</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>4.9959969054463767E-2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>-4.4366308051228594E-3</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>1.562099036525747E-2</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0.37950479684377619</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>5.8195051784647054E-5</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>-9.7698253805141397E-2</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>-1.8618671272752751</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>-2.2949949128916932E-4</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>-0.12987267861214094</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>1.6800371225838787E-2</v>
-      </c>
-      <c r="Q14">
-        <v>-9.3115125406460247E-2</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0.50540785378514563</v>
-      </c>
-      <c r="E15">
-        <v>-4.5902694315623799E-2</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>-3.3591211962019904E-2</v>
-      </c>
-      <c r="P15">
-        <v>-8.6976342475606431E-3</v>
-      </c>
-      <c r="Q15">
-        <v>6.9028799724302724E-3</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>-1.6335741034220978E-3</v>
-      </c>
-      <c r="T15">
-        <v>4.8315806593205411E-2</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0.38172972497927926</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>-1.5924026635653246E-2</v>
-      </c>
-      <c r="E18">
-        <v>0.4141600217548902</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>-0.20200506001499638</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>-1.2436555873931391E-3</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>-0.26824665257451935</v>
-      </c>
-      <c r="L19">
-        <v>0.10779023621981508</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>-1.9394977771853461E-3</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0.15689663146550228</v>
-      </c>
-      <c r="T19">
-        <v>-0.10268126613380985</v>
-      </c>
-      <c r="U19">
-        <v>0.19931973286411933</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>4.3042033874769188E-2</v>
-      </c>
-      <c r="E21">
-        <v>0.54167750471316523</v>
-      </c>
-      <c r="F21">
-        <v>-0.15283981940782512</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>9.5369302076309156E-2</v>
-      </c>
-      <c r="P21">
-        <v>0.19791403460035711</v>
-      </c>
-      <c r="Q21">
-        <v>4.3891397946807719E-3</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>6.7777079046619407E-2</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>1.0008475760882247</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>15</v>
-      </c>
-      <c r="D1">
-        <v>30</v>
-      </c>
-      <c r="E1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0.71685637353245302</v>
-      </c>
-      <c r="D2">
-        <v>0.641384013885964</v>
-      </c>
-      <c r="E2">
-        <v>0.92245951116837099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1.0720025822221999</v>
-      </c>
-      <c r="D3">
-        <v>0.79501282449205402</v>
-      </c>
-      <c r="E3">
-        <v>0.70364126812957295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.81727687981679498</v>
-      </c>
-      <c r="D4">
-        <v>0.95726655288635398</v>
-      </c>
-      <c r="E4">
-        <v>0.70281582595053704</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0.42580145197082703</v>
-      </c>
-      <c r="D5">
-        <v>0.63499396842678302</v>
-      </c>
-      <c r="E5">
-        <v>0.78157727034137603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>0.33360829265507402</v>
-      </c>
-      <c r="D6">
-        <v>0.73217515726877702</v>
-      </c>
-      <c r="E6">
-        <v>0.123577659752324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>0.72981462046491197</v>
-      </c>
-      <c r="D7">
-        <v>0.86955218045807403</v>
-      </c>
-      <c r="E7">
-        <v>0.378271346401447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>0.36996455194467798</v>
-      </c>
-      <c r="D8">
-        <v>0.70342207551775604</v>
-      </c>
-      <c r="E8">
-        <v>6.9899398165083504E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>0.70419682823757201</v>
-      </c>
-      <c r="D9">
-        <v>1.0267247918276701</v>
-      </c>
-      <c r="E9">
-        <v>0.49646001986384902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>1.46734909946811</v>
-      </c>
-      <c r="D10">
-        <v>0.36648573269253598</v>
-      </c>
-      <c r="E10">
-        <v>1.2709683195888899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>1.5077863092230499</v>
-      </c>
-      <c r="D11">
-        <v>1.9079886536330199</v>
-      </c>
-      <c r="E11">
-        <v>1.5927986695423499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>0.882402532295405</v>
-      </c>
-      <c r="D12">
-        <v>0.70833878680824303</v>
-      </c>
-      <c r="E12">
-        <v>1.2333502842950701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>0.72200008892351397</v>
-      </c>
-      <c r="D13">
-        <v>0.19486350311051201</v>
-      </c>
-      <c r="E13">
-        <v>0.773870958847513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>0.60565050583496804</v>
-      </c>
-      <c r="D14">
-        <v>0.72894670728059097</v>
-      </c>
-      <c r="E14">
-        <v>0.55820817716644999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>0.48729361226630702</v>
-      </c>
-      <c r="D15">
-        <v>0.460208681767377</v>
-      </c>
-      <c r="E15">
-        <v>0.389622153973187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16">
-        <v>1.10568541431009</v>
-      </c>
-      <c r="D16">
-        <v>0.84212726958299999</v>
-      </c>
-      <c r="E16">
-        <v>0.74688657635395606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17">
-        <v>0.78347365457406604</v>
-      </c>
-      <c r="D17">
-        <v>0.77095258667562505</v>
-      </c>
-      <c r="E17">
-        <v>0.83098363973680001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>0.49281715885722699</v>
-      </c>
-      <c r="D18">
-        <v>0.49359243164727601</v>
-      </c>
-      <c r="E18">
-        <v>0.43677055453290398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>0.44119801471892001</v>
-      </c>
-      <c r="D19">
-        <v>0.370984808428729</v>
-      </c>
-      <c r="E19">
-        <v>0.88887609801733103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20">
-        <v>0.46320579285871899</v>
-      </c>
-      <c r="D20">
-        <v>0.74931953788871897</v>
-      </c>
-      <c r="E20">
-        <v>0.34159422061209999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>0.40923963868872798</v>
-      </c>
-      <c r="D21">
-        <v>0.28048461336490499</v>
-      </c>
-      <c r="E21">
-        <v>0.287254982132019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22">
-        <v>0.51586404854024204</v>
-      </c>
-      <c r="D22">
-        <v>1.00896777328994</v>
-      </c>
-      <c r="E22">
-        <v>1.0737397835062501</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4254,14 +3591,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4271,14 +3603,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4290,9 +3617,9 @@
       <selection sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4309,7 +3636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4326,7 +3653,7 @@
         <v>-8.4072251269262696E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4343,7 +3670,7 @@
         <v>0.28493900197468303</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4360,7 +3687,7 @@
         <v>1.75845186354745</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4377,7 +3704,7 @@
         <v>0.62853290835895503</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4394,7 +3721,7 @@
         <v>-0.840550124735847</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4411,7 +3738,7 @@
         <v>0.52318465626622102</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4428,7 +3755,7 @@
         <v>-0.52188088220067397</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4445,7 +3772,7 @@
         <v>1.51120475387719</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4462,7 +3789,7 @@
         <v>-0.31968777485004002</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4479,7 +3806,7 @@
         <v>1.68322491090212</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4496,7 +3823,7 @@
         <v>0.50481517024967004</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4513,7 +3840,7 @@
         <v>0.978210796537343</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -4530,7 +3857,7 @@
         <v>-0.48575223354603297</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4547,7 +3874,7 @@
         <v>0.41039596022329999</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -4564,7 +3891,7 @@
         <v>1.4171295501935499</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4581,7 +3908,7 @@
         <v>0.64091270958555202</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -4598,7 +3925,7 @@
         <v>-0.17108413520440799</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -4615,7 +3942,7 @@
         <v>-0.42446271612747</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -4632,7 +3959,7 @@
         <v>-0.40123925680431699</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4649,7 +3976,7 @@
         <v>-0.72124064515279496</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -4668,11 +3995,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4684,9 +4006,9 @@
       <selection sqref="A1:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4733,7 +4055,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4780,7 +4102,7 @@
         <v>-6.0586416577918113E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4827,7 +4149,7 @@
         <v>0.31427597860956735</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4874,7 +4196,7 @@
         <v>1.7501096849785203</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4921,7 +4243,7 @@
         <v>0.47743827970238895</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4968,7 +4290,7 @@
         <v>-0.87182201689118732</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5015,7 +4337,7 @@
         <v>0.48663295323894074</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5062,7 +4384,7 @@
         <v>-0.19999999999997869</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5109,7 +4431,7 @@
         <v>1.4077078090675186</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5156,7 +4478,7 @@
         <v>-0.30222544024854869</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5203,7 +4525,7 @@
         <v>1.9333215269962505</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5250,7 +4572,7 @@
         <v>0.80615319301071031</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5297,7 +4619,7 @@
         <v>1.0621743021244376</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5344,7 +4666,7 @@
         <v>-0.50845117363649173</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5391,7 +4713,7 @@
         <v>0.43022887727350434</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -5438,7 +4760,7 @@
         <v>1.4319392146021961</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -5485,7 +4807,7 @@
         <v>0.44384504793290125</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5532,7 +4854,7 @@
         <v>-0.21317816642588611</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5579,7 +4901,7 @@
         <v>-0.42553191489159192</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -5626,7 +4948,7 @@
         <v>-0.50543623575471208</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -5673,7 +4995,7 @@
         <v>-0.70892658621330229</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -5722,11 +5044,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5738,9 +5055,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5751,7 +5068,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5762,7 +5079,7 @@
         <v>0.23104906018664842</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5773,7 +5090,7 @@
         <v>1.980420515885558E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5784,7 +5101,7 @@
         <v>2.7182242374899815E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5795,7 +5112,7 @@
         <v>1.7328679513998631E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5806,7 +5123,7 @@
         <v>2.6659506944613279E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5817,7 +5134,7 @@
         <v>0.23104906018664842</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5828,7 +5145,7 @@
         <v>2.3104906018664843E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5839,7 +5156,7 @@
         <v>2.7182242374899815E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5850,7 +5167,7 @@
         <v>2.7182242374899815E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5861,7 +5178,7 @@
         <v>2.7182242374899815E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5872,7 +5189,7 @@
         <v>3.4657359027997263E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5883,7 +5200,7 @@
         <v>2.7182242374899815E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5894,7 +5211,7 @@
         <v>3.6481430555786593E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5905,7 +5222,7 @@
         <v>4.9510512897138946E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -5916,7 +5233,7 @@
         <v>3.0136833937388925E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -5927,7 +5244,7 @@
         <v>3.8508176697774739E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5938,7 +5255,7 @@
         <v>2.7182242374899815E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5949,7 +5266,7 @@
         <v>4.9159374507797542E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -5960,7 +5277,7 @@
         <v>4.0773363562349722E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -5971,7 +5288,7 @@
         <v>3.3007008598092635E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -5984,11 +5301,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6000,9 +5312,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6013,7 +5325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6024,7 +5336,7 @@
         <v>1.0419031720417105</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6035,7 +5347,7 @@
         <v>0.15165365899506877</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6046,7 +5358,7 @@
         <v>0.63185335205566195</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6057,7 +5369,7 @@
         <v>5.5687738623669145E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6068,7 +5380,7 @@
         <v>3.3900304998264172E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -6079,7 +5391,7 @@
         <v>1.1911970026168637</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -6090,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6101,7 +5413,7 @@
         <v>0.1802143863548544</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -6112,7 +5424,7 @@
         <v>0.13595961368967266</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -6123,7 +5435,7 @@
         <v>2.723099716699279</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -6134,7 +5446,7 @@
         <v>0.12702498695394415</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -6145,7 +5457,7 @@
         <v>0.26501664515484091</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -6156,7 +5468,7 @@
         <v>0.13465361836474329</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -6167,7 +5479,7 @@
         <v>0.30603632374651718</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -6178,7 +5490,7 @@
         <v>0.38846218889687484</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -6189,7 +5501,7 @@
         <v>0.10781518226008703</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6200,7 +5512,7 @@
         <v>0.10653697481566306</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -6211,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -6222,7 +5534,7 @@
         <v>5.5160175367749392E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -6233,7 +5545,7 @@
         <v>0.10686857839796243</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -6246,11 +5558,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6262,9 +5569,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -6280,11 +5587,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6296,9 +5598,9 @@
       <selection sqref="A1:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -6366,7 +5668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6434,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6502,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -6570,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -6638,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6706,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -6774,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -6842,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6910,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6978,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -7046,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -7114,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -7182,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -7250,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -7318,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -7386,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -7454,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -7522,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -7590,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -7658,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -7726,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -7796,10 +7098,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/test-files/demo-files/21-genes_50-edges_Dahlquist-data_estimation_output.xlsx
+++ b/test-files/demo-files/21-genes_50-edges_Dahlquist-data_estimation_output.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Documents/GRNsight/test-files/demo-files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="19980" windowHeight="14380" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="19980" windowHeight="14380" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,13 +17,12 @@
     <sheet name="measurement_times" sheetId="8" r:id="rId8"/>
     <sheet name="network" sheetId="9" r:id="rId9"/>
     <sheet name="network_weights" sheetId="10" r:id="rId10"/>
-    <sheet name="network_optimized_weights" sheetId="12" r:id="rId11"/>
+    <sheet name="network_optimized_b" sheetId="11" r:id="rId11"/>
+    <sheet name="network_optimized_weights" sheetId="12" r:id="rId12"/>
+    <sheet name="concentration_sigmas" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="49">
   <si>
     <t>SystematicName</t>
   </si>
@@ -182,6 +176,9 @@
   <si>
     <t>rows genes affected/cols genes controlling</t>
   </si>
+  <si>
+    <t>b</t>
+  </si>
 </sst>
 </file>
 
@@ -223,11 +220,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -557,9 +549,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -571,9 +568,9 @@
       <selection sqref="A1:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -641,7 +638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -709,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -777,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -845,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -913,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -981,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1049,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1117,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1185,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1253,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1321,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1389,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1457,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1525,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1593,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1661,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1729,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1797,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1865,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1933,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2001,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2071,20 +2068,287 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0.94105836080930605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1.2709469918324567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2.7873353519020458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.69921119234267315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>3.6868739753550659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1.3818989850522732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0.31449924436605914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>1.1705717560675761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>0.49053711734064209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>-0.45983334369307516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>1.5673874122874596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>1.7437631948917169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>0.74590990943301705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>1.9997194134800969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>1.6566968666165478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>1.4390069699093244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>2.6112069509788345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>4.6261207491672716</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -2152,7 +2416,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2220,7 +2484,7 @@
         <v>-0.12614940052345783</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2288,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2356,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2424,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2492,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2560,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2628,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2696,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2764,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2832,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2900,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2968,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3036,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3104,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3172,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -3240,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3308,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -3376,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -3444,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3512,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -3582,6 +3846,405 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>15</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0.71685637353245302</v>
+      </c>
+      <c r="D2">
+        <v>0.641384013885964</v>
+      </c>
+      <c r="E2">
+        <v>0.92245951116837099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1.0720025822221999</v>
+      </c>
+      <c r="D3">
+        <v>0.79501282449205402</v>
+      </c>
+      <c r="E3">
+        <v>0.70364126812957295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.81727687981679498</v>
+      </c>
+      <c r="D4">
+        <v>0.95726655288635398</v>
+      </c>
+      <c r="E4">
+        <v>0.70281582595053704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0.42580145197082703</v>
+      </c>
+      <c r="D5">
+        <v>0.63499396842678302</v>
+      </c>
+      <c r="E5">
+        <v>0.78157727034137603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.33360829265507402</v>
+      </c>
+      <c r="D6">
+        <v>0.73217515726877702</v>
+      </c>
+      <c r="E6">
+        <v>0.123577659752324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0.72981462046491197</v>
+      </c>
+      <c r="D7">
+        <v>0.86955218045807403</v>
+      </c>
+      <c r="E7">
+        <v>0.378271346401447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>0.36996455194467798</v>
+      </c>
+      <c r="D8">
+        <v>0.70342207551775604</v>
+      </c>
+      <c r="E8">
+        <v>6.9899398165083504E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0.70419682823757201</v>
+      </c>
+      <c r="D9">
+        <v>1.0267247918276701</v>
+      </c>
+      <c r="E9">
+        <v>0.49646001986384902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>1.46734909946811</v>
+      </c>
+      <c r="D10">
+        <v>0.36648573269253598</v>
+      </c>
+      <c r="E10">
+        <v>1.2709683195888899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>1.5077863092230499</v>
+      </c>
+      <c r="D11">
+        <v>1.9079886536330199</v>
+      </c>
+      <c r="E11">
+        <v>1.5927986695423499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>0.882402532295405</v>
+      </c>
+      <c r="D12">
+        <v>0.70833878680824303</v>
+      </c>
+      <c r="E12">
+        <v>1.2333502842950701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>0.72200008892351397</v>
+      </c>
+      <c r="D13">
+        <v>0.19486350311051201</v>
+      </c>
+      <c r="E13">
+        <v>0.773870958847513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>0.60565050583496804</v>
+      </c>
+      <c r="D14">
+        <v>0.72894670728059097</v>
+      </c>
+      <c r="E14">
+        <v>0.55820817716644999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>0.48729361226630702</v>
+      </c>
+      <c r="D15">
+        <v>0.460208681767377</v>
+      </c>
+      <c r="E15">
+        <v>0.389622153973187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>1.10568541431009</v>
+      </c>
+      <c r="D16">
+        <v>0.84212726958299999</v>
+      </c>
+      <c r="E16">
+        <v>0.74688657635395606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>0.78347365457406604</v>
+      </c>
+      <c r="D17">
+        <v>0.77095258667562505</v>
+      </c>
+      <c r="E17">
+        <v>0.83098363973680001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>0.49281715885722699</v>
+      </c>
+      <c r="D18">
+        <v>0.49359243164727601</v>
+      </c>
+      <c r="E18">
+        <v>0.43677055453290398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>0.44119801471892001</v>
+      </c>
+      <c r="D19">
+        <v>0.370984808428729</v>
+      </c>
+      <c r="E19">
+        <v>0.88887609801733103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>0.46320579285871899</v>
+      </c>
+      <c r="D20">
+        <v>0.74931953788871897</v>
+      </c>
+      <c r="E20">
+        <v>0.34159422061209999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>0.40923963868872798</v>
+      </c>
+      <c r="D21">
+        <v>0.28048461336490499</v>
+      </c>
+      <c r="E21">
+        <v>0.287254982132019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>0.51586404854024204</v>
+      </c>
+      <c r="D22">
+        <v>1.00896777328994</v>
+      </c>
+      <c r="E22">
+        <v>1.0737397835062501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3591,9 +4254,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3603,9 +4271,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3617,9 +4290,9 @@
       <selection sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3636,7 +4309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3653,7 +4326,7 @@
         <v>-8.4072251269262696E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3670,7 +4343,7 @@
         <v>0.28493900197468303</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3687,7 +4360,7 @@
         <v>1.75845186354745</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3704,7 +4377,7 @@
         <v>0.62853290835895503</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3721,7 +4394,7 @@
         <v>-0.840550124735847</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3738,7 +4411,7 @@
         <v>0.52318465626622102</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3755,7 +4428,7 @@
         <v>-0.52188088220067397</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3772,7 +4445,7 @@
         <v>1.51120475387719</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3789,7 +4462,7 @@
         <v>-0.31968777485004002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3806,7 +4479,7 @@
         <v>1.68322491090212</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3823,7 +4496,7 @@
         <v>0.50481517024967004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3840,7 +4513,7 @@
         <v>0.978210796537343</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3857,7 +4530,7 @@
         <v>-0.48575223354603297</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3874,7 +4547,7 @@
         <v>0.41039596022329999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3891,7 +4564,7 @@
         <v>1.4171295501935499</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3908,7 +4581,7 @@
         <v>0.64091270958555202</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3925,7 +4598,7 @@
         <v>-0.17108413520440799</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3942,7 +4615,7 @@
         <v>-0.42446271612747</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3959,7 +4632,7 @@
         <v>-0.40123925680431699</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -3976,7 +4649,7 @@
         <v>-0.72124064515279496</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3995,6 +4668,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4006,9 +4684,9 @@
       <selection sqref="A1:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4055,7 +4733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4102,7 +4780,7 @@
         <v>-6.0586416577918113E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4149,7 +4827,7 @@
         <v>0.31427597860956735</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4196,7 +4874,7 @@
         <v>1.7501096849785203</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4243,7 +4921,7 @@
         <v>0.47743827970238895</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4290,7 +4968,7 @@
         <v>-0.87182201689118732</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4337,7 +5015,7 @@
         <v>0.48663295323894074</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4384,7 +5062,7 @@
         <v>-0.19999999999997869</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4431,7 +5109,7 @@
         <v>1.4077078090675186</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4478,7 +5156,7 @@
         <v>-0.30222544024854869</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4525,7 +5203,7 @@
         <v>1.9333215269962505</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4572,7 +5250,7 @@
         <v>0.80615319301071031</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4619,7 +5297,7 @@
         <v>1.0621743021244376</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -4666,7 +5344,7 @@
         <v>-0.50845117363649173</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4713,7 +5391,7 @@
         <v>0.43022887727350434</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -4760,7 +5438,7 @@
         <v>1.4319392146021961</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4807,7 +5485,7 @@
         <v>0.44384504793290125</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -4854,7 +5532,7 @@
         <v>-0.21317816642588611</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -4901,7 +5579,7 @@
         <v>-0.42553191489159192</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -4948,7 +5626,7 @@
         <v>-0.50543623575471208</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4995,7 +5673,7 @@
         <v>-0.70892658621330229</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -5044,6 +5722,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5055,9 +5738,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5068,7 +5751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5079,7 +5762,7 @@
         <v>0.23104906018664842</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5090,7 +5773,7 @@
         <v>1.980420515885558E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5101,7 +5784,7 @@
         <v>2.7182242374899815E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5112,7 +5795,7 @@
         <v>1.7328679513998631E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5123,7 +5806,7 @@
         <v>2.6659506944613279E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5134,7 +5817,7 @@
         <v>0.23104906018664842</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5145,7 +5828,7 @@
         <v>2.3104906018664843E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5156,7 +5839,7 @@
         <v>2.7182242374899815E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5167,7 +5850,7 @@
         <v>2.7182242374899815E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5178,7 +5861,7 @@
         <v>2.7182242374899815E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5189,7 +5872,7 @@
         <v>3.4657359027997263E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5200,7 +5883,7 @@
         <v>2.7182242374899815E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5211,7 +5894,7 @@
         <v>3.6481430555786593E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5222,7 +5905,7 @@
         <v>4.9510512897138946E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -5233,7 +5916,7 @@
         <v>3.0136833937388925E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -5244,7 +5927,7 @@
         <v>3.8508176697774739E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5255,7 +5938,7 @@
         <v>2.7182242374899815E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5266,7 +5949,7 @@
         <v>4.9159374507797542E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -5277,7 +5960,7 @@
         <v>4.0773363562349722E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -5288,7 +5971,7 @@
         <v>3.3007008598092635E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -5301,6 +5984,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5312,9 +6000,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5325,7 +6013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5336,7 +6024,7 @@
         <v>1.0419031720417105</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5347,7 +6035,7 @@
         <v>0.15165365899506877</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5358,7 +6046,7 @@
         <v>0.63185335205566195</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5369,7 +6057,7 @@
         <v>5.5687738623669145E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5380,7 +6068,7 @@
         <v>3.3900304998264172E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5391,7 +6079,7 @@
         <v>1.1911970026168637</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5402,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5413,7 +6101,7 @@
         <v>0.1802143863548544</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5424,7 +6112,7 @@
         <v>0.13595961368967266</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5435,7 +6123,7 @@
         <v>2.723099716699279</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5446,7 +6134,7 @@
         <v>0.12702498695394415</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -5457,7 +6145,7 @@
         <v>0.26501664515484091</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5468,7 +6156,7 @@
         <v>0.13465361836474329</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -5479,7 +6167,7 @@
         <v>0.30603632374651718</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -5490,7 +6178,7 @@
         <v>0.38846218889687484</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -5501,7 +6189,7 @@
         <v>0.10781518226008703</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -5512,7 +6200,7 @@
         <v>0.10653697481566306</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5523,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -5534,7 +6222,7 @@
         <v>5.5160175367749392E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -5545,7 +6233,7 @@
         <v>0.10686857839796243</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -5558,6 +6246,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5569,9 +6262,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -5587,6 +6280,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5598,9 +6296,9 @@
       <selection sqref="A1:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -5668,7 +6366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5736,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5804,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5872,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5940,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6008,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -6076,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -6144,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6212,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6280,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -6348,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -6416,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -6484,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -6552,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -6620,7 +7318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -6688,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -6756,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -6824,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -6892,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -6960,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -7028,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -7098,5 +7796,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>